--- a/application/file/전화번호_50개테스트.xlsx
+++ b/application/file/전화번호_50개테스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\헬라\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150ECCC-1F6E-4CA5-9EEA-A0B4D4F415F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E8FC5-64B5-449F-A70A-2D2660B82223}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37695" yWindow="3555" windowWidth="19065" windowHeight="11385" xr2:uid="{71CD7D19-B705-4D4E-9CBD-3B3BAB052328}"/>
+    <workbookView xWindow="38040" yWindow="3900" windowWidth="19065" windowHeight="11385" xr2:uid="{71CD7D19-B705-4D4E-9CBD-3B3BAB052328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,161 @@
   <si>
     <t>전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011111146</t>
+  </si>
+  <si>
+    <t>01011111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011111112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011111113</t>
+  </si>
+  <si>
+    <t>01011111114</t>
+  </si>
+  <si>
+    <t>01011111115</t>
+  </si>
+  <si>
+    <t>01011111116</t>
+  </si>
+  <si>
+    <t>01011111117</t>
+  </si>
+  <si>
+    <t>01011111118</t>
+  </si>
+  <si>
+    <t>01011111119</t>
+  </si>
+  <si>
+    <t>01011111120</t>
+  </si>
+  <si>
+    <t>01011111121</t>
+  </si>
+  <si>
+    <t>01011111122</t>
+  </si>
+  <si>
+    <t>01011111123</t>
+  </si>
+  <si>
+    <t>01011111124</t>
+  </si>
+  <si>
+    <t>01011111125</t>
+  </si>
+  <si>
+    <t>01011111126</t>
+  </si>
+  <si>
+    <t>01011111127</t>
+  </si>
+  <si>
+    <t>01011111128</t>
+  </si>
+  <si>
+    <t>01011111129</t>
+  </si>
+  <si>
+    <t>01011111130</t>
+  </si>
+  <si>
+    <t>01011111131</t>
+  </si>
+  <si>
+    <t>01011111132</t>
+  </si>
+  <si>
+    <t>01011111133</t>
+  </si>
+  <si>
+    <t>01011111134</t>
+  </si>
+  <si>
+    <t>01011111135</t>
+  </si>
+  <si>
+    <t>01011111136</t>
+  </si>
+  <si>
+    <t>01011111137</t>
+  </si>
+  <si>
+    <t>01011111138</t>
+  </si>
+  <si>
+    <t>01011111139</t>
+  </si>
+  <si>
+    <t>01011111140</t>
+  </si>
+  <si>
+    <t>01011111141</t>
+  </si>
+  <si>
+    <t>01011111142</t>
+  </si>
+  <si>
+    <t>01011111143</t>
+  </si>
+  <si>
+    <t>01011111144</t>
+  </si>
+  <si>
+    <t>01011111145</t>
+  </si>
+  <si>
+    <t>01011111147</t>
+  </si>
+  <si>
+    <t>01011111148</t>
+  </si>
+  <si>
+    <t>01011111149</t>
+  </si>
+  <si>
+    <t>01011111150</t>
+  </si>
+  <si>
+    <t>01011111151</t>
+  </si>
+  <si>
+    <t>01011111152</t>
+  </si>
+  <si>
+    <t>01011111153</t>
+  </si>
+  <si>
+    <t>01011111154</t>
+  </si>
+  <si>
+    <t>01011111155</t>
+  </si>
+  <si>
+    <t>01011111156</t>
+  </si>
+  <si>
+    <t>01011111157</t>
+  </si>
+  <si>
+    <t>01011111158</t>
+  </si>
+  <si>
+    <t>01011111159</t>
+  </si>
+  <si>
+    <t>01011111160</t>
+  </si>
+  <si>
+    <t>01011111161</t>
   </si>
 </sst>
 </file>
@@ -84,8 +239,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,22 +560,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFA43DC-88CA-4869-9307-5F34B489FD18}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -425,405 +583,416 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1011111111</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1011111112</v>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1011111113</v>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1011111114</v>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1011111115</v>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1011111116</v>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1011111117</v>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1011111118</v>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1011111119</v>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1011111120</v>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1011111121</v>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1011111122</v>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1011111123</v>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1011111124</v>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1011111125</v>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1011111126</v>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1011111127</v>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1011111128</v>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1011111129</v>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1011111130</v>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1011111131</v>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1011111132</v>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1011111133</v>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1011111134</v>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1011111135</v>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1011111136</v>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1011111137</v>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>1011111138</v>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>1011111139</v>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>1011111140</v>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>1011111141</v>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>1011111142</v>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>1011111143</v>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>1011111144</v>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>1011111145</v>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>1011111146</v>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>1011111147</v>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1011111148</v>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>1011111149</v>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>1011111150</v>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>1011111151</v>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>1011111152</v>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>1011111153</v>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>1011111154</v>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>1011111155</v>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>1011111156</v>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>1011111157</v>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>1011111158</v>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>1011111159</v>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>1011111160</v>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B1:B1048576" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>